--- a/iselUssSyncV2/OutputWSL/20220428_1138_D50L474W90Q20.0U0.28H90G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220428_1138_D50L474W90Q20.0U0.28H90G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>90.780753968253904</v>
+        <v>90.781684735275036</v>
       </c>
       <c r="F2" s="0">
-        <v>91.147539682539772</v>
+        <v>91.148470449560605</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>91.486388888888882</v>
+        <v>91.488664097162328</v>
       </c>
       <c r="F3" s="0">
-        <v>92.956587301587319</v>
+        <v>92.958862509860779</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>91.219365079365105</v>
+        <v>91.222116013004808</v>
       </c>
       <c r="F4" s="0">
-        <v>94.539999999999978</v>
+        <v>94.542750933639681</v>
       </c>
     </row>
     <row r="5">
@@ -182,7 +182,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>90.906309523809554</v>
+        <v>90.909115614013572</v>
       </c>
       <c r="F5" s="0"/>
     </row>
@@ -200,7 +200,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>90.129087301587276</v>
+        <v>90.131941653784921</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -218,10 +218,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>88.8424206349207</v>
+        <v>88.845316354541396</v>
       </c>
       <c r="F7" s="0">
-        <v>94.808293650793587</v>
+        <v>94.811189370414453</v>
       </c>
     </row>
     <row r="8">
@@ -238,10 +238,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>86.428884462151316</v>
+        <v>86.431814654624858</v>
       </c>
       <c r="F8" s="0">
-        <v>91.390557768924339</v>
+        <v>91.393487961397753</v>
       </c>
     </row>
     <row r="9">
@@ -258,10 +258,10 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>85.258373015873062</v>
+        <v>85.261315067007757</v>
       </c>
       <c r="F9" s="0">
-        <v>87.343571428571465</v>
+        <v>87.346513479706132</v>
       </c>
     </row>
     <row r="10">
@@ -278,10 +278,10 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>83.940158730158743</v>
+        <v>83.943111536823395</v>
       </c>
       <c r="F10" s="0">
-        <v>80.790674603174608</v>
+        <v>80.793627409839331</v>
       </c>
     </row>
     <row r="11">
@@ -298,10 +298,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>83.1714682539683</v>
+        <v>83.174430713031839</v>
       </c>
       <c r="F11" s="0">
-        <v>78.021190476190469</v>
+        <v>78.024152935253952</v>
       </c>
     </row>
     <row r="12">
@@ -318,10 +318,10 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>82.910277777777736</v>
+        <v>82.913244649366376</v>
       </c>
       <c r="F12" s="0">
-        <v>77.020476190476217</v>
+        <v>77.0234430620648</v>
       </c>
     </row>
     <row r="13">
@@ -338,10 +338,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>82.870557768924286</v>
+        <v>82.873528777255217</v>
       </c>
       <c r="F13" s="0">
-        <v>78.391474103585665</v>
+        <v>78.39444511191661</v>
       </c>
     </row>
     <row r="14">
@@ -358,10 +358,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>82.840634920635026</v>
+        <v>82.843609789925338</v>
       </c>
       <c r="F14" s="0">
-        <v>80.034047619047612</v>
+        <v>80.037022488338067</v>
       </c>
     </row>
     <row r="15">
@@ -378,10 +378,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>83.080793650793638</v>
+        <v>83.083772105260792</v>
       </c>
       <c r="F15" s="0">
-        <v>83.065158730158743</v>
+        <v>83.06813718462584</v>
       </c>
     </row>
     <row r="16">
@@ -398,10 +398,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>84.347569721115562</v>
+        <v>84.350554518587543</v>
       </c>
       <c r="F16" s="0">
-        <v>88.080119521912351</v>
+        <v>88.083104319384375</v>
       </c>
     </row>
     <row r="17">
@@ -418,10 +418,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>85.784780876493983</v>
+        <v>85.787770913839609</v>
       </c>
       <c r="F17" s="0">
-        <v>88.356693227091625</v>
+        <v>88.359683264437209</v>
       </c>
     </row>
     <row r="18">
@@ -438,10 +438,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>87.585139442231039</v>
+        <v>87.58813361631897</v>
       </c>
       <c r="F18" s="0">
-        <v>85.055258964143434</v>
+        <v>85.058253138231336</v>
       </c>
     </row>
     <row r="19">
@@ -458,10 +458,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>84.535119047619077</v>
+        <v>84.5381181857977</v>
       </c>
       <c r="F19" s="0">
-        <v>86.060198412698412</v>
+        <v>86.063197550877106</v>
       </c>
     </row>
     <row r="20">
@@ -478,10 +478,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>86.519721115537834</v>
+        <v>86.522720253716514</v>
       </c>
       <c r="F20" s="0">
-        <v>87.775617529880492</v>
+        <v>87.778616668059144</v>
       </c>
     </row>
     <row r="21">
@@ -498,10 +498,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>89.33095617529878</v>
+        <v>89.333948418906985</v>
       </c>
       <c r="F21" s="0">
-        <v>87.091553784860537</v>
+        <v>87.094546028468741</v>
       </c>
     </row>
     <row r="22">
@@ -518,10 +518,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>84.543984063745015</v>
+        <v>84.546962518212126</v>
       </c>
       <c r="F22" s="0">
-        <v>87.302270916334678</v>
+        <v>87.305249370801761</v>
       </c>
     </row>
     <row r="23">
@@ -538,10 +538,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>90.396785714285713</v>
+        <v>90.399743485041228</v>
       </c>
       <c r="F23" s="0">
-        <v>88.430436507936506</v>
+        <v>88.43339427869202</v>
       </c>
     </row>
     <row r="24">
@@ -558,10 +558,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>88.896746031746062</v>
+        <v>88.899641751366843</v>
       </c>
       <c r="F24" s="0">
-        <v>88.126666666666665</v>
+        <v>88.129562386287461</v>
       </c>
     </row>
     <row r="25">
@@ -578,10 +578,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>88.297261904761911</v>
+        <v>88.300067994965843</v>
       </c>
       <c r="F25" s="0">
-        <v>88.392817460317445</v>
+        <v>88.395623550521407</v>
       </c>
     </row>
     <row r="26">
@@ -598,10 +598,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>84.547968127490037</v>
+        <v>84.550657009995064</v>
       </c>
       <c r="F26" s="0">
-        <v>88.337928286852602</v>
+        <v>88.340617169357628</v>
       </c>
     </row>
     <row r="27">
@@ -618,10 +618,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>84.65294820717132</v>
+        <v>84.655492303695297</v>
       </c>
       <c r="F27" s="0">
-        <v>88.294501992031897</v>
+        <v>88.297046088555859</v>
       </c>
     </row>
     <row r="28">
@@ -638,10 +638,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>87.641474103585651</v>
+        <v>87.643845835846506</v>
       </c>
       <c r="F28" s="0">
-        <v>88.031952191235064</v>
+        <v>88.034323923495904</v>
       </c>
     </row>
     <row r="29">
@@ -658,10 +658,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>87.661150793650791</v>
+        <v>87.663322583366408</v>
       </c>
       <c r="F29" s="0">
-        <v>87.927063492063439</v>
+        <v>87.929235281779142</v>
       </c>
     </row>
     <row r="30">
@@ -678,10 +678,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>87.243015873015864</v>
+        <v>87.244705042794664</v>
       </c>
       <c r="F30" s="0">
-        <v>87.47769841269843</v>
+        <v>87.479387582477216</v>
       </c>
     </row>
   </sheetData>
